--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
-    <sheet name="1.7.3" sheetId="3" r:id="rId2"/>
-    <sheet name="1.7.2" sheetId="2" r:id="rId3"/>
+    <sheet name="2.0.1" sheetId="4" r:id="rId2"/>
+    <sheet name="1.7.3" sheetId="3" r:id="rId3"/>
+    <sheet name="1.7.2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>Test-method:</t>
   </si>
@@ -96,9 +97,6 @@
     <t>DefectNumber</t>
   </si>
   <si>
-    <t>Wait for 1.7.2 Defect Number 1 or 5 to be resolved</t>
-  </si>
-  <si>
     <t>SetupProject1</t>
   </si>
   <si>
@@ -169,6 +167,15 @@
   </si>
   <si>
     <t>#62</t>
+  </si>
+  <si>
+    <t>Defect Number</t>
+  </si>
+  <si>
+    <t>On "Add LicenseHeaders"</t>
+  </si>
+  <si>
+    <t>One file remains changed, but it is a file from OfficeApp1Web Project, which seems unrelated to current Project. Error is also happening with 2.0.0, so no new bug.</t>
   </si>
 </sst>
 </file>
@@ -212,7 +219,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -516,11 +523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" style="1" customWidth="1"/>
@@ -539,12 +546,12 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -556,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -669,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -703,10 +710,10 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -717,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -734,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -748,19 +755,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -788,18 +795,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" customWidth="1"/>
-    <col min="5" max="5" width="96.140625" customWidth="1"/>
+    <col min="5" max="5" width="122.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -819,13 +871,13 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,13 +891,13 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,16 +908,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,13 +975,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
@@ -983,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1005,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -1030,7 +1082,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,10 +1120,10 @@
         <v>TypeScriptHTMLApp1</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1109,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
